--- a/Profile_ReferralRequest.xls.xlsx
+++ b/Profile_ReferralRequest.xls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\137291\Desktop\FHIR-Translator\FHIR\new ons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\137291\Desktop\FHIR-Translator\FHIR\new ons\latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="210">
   <si>
     <t>FIELDS FROM FHIR Resource</t>
   </si>
@@ -71,27 +71,12 @@
     <t>ReferralRequest.definition</t>
   </si>
   <si>
-    <t xml:space="preserve">        ReferralRequest.definition.ActivityDefinition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ReferralRequest.definition.PlanDefinition</t>
-  </si>
-  <si>
     <t>ReferralRequest.basedOn</t>
   </si>
   <si>
-    <t>ReferralRequest.basedOn.ReferralRequest</t>
-  </si>
-  <si>
-    <t>ReferralRequest.basedOn.CarePlan</t>
-  </si>
-  <si>
     <t>ReferralRequest.replaces</t>
   </si>
   <si>
-    <t>ReferralRequest.replaces.ReferralRequest</t>
-  </si>
-  <si>
     <t>ReferralRequest.groupIdentifier</t>
   </si>
   <si>
@@ -122,108 +107,39 @@
     <t>ReferralRequest.type</t>
   </si>
   <si>
-    <t>ReferralRequest.type.coding</t>
-  </si>
-  <si>
-    <t>ReferralRequest.type.text</t>
-  </si>
-  <si>
     <t>ReferralRequest.priority</t>
   </si>
   <si>
-    <t>ReferralRequest.priority.coding</t>
-  </si>
-  <si>
-    <t>ReferralRequest.priority.text</t>
-  </si>
-  <si>
     <t>ReferralRequest.serviceRequested</t>
   </si>
   <si>
-    <t>ReferralRequest.serviceRequested.coding</t>
-  </si>
-  <si>
-    <t>ReferralRequest.serviceRequested.text</t>
-  </si>
-  <si>
     <t>ReferralRequest.subject</t>
   </si>
   <si>
-    <t>ReferralRequest.subject.Patient</t>
-  </si>
-  <si>
-    <t>ReferralRequest.subject.Group</t>
-  </si>
-  <si>
     <t>ReferralRequest.context</t>
   </si>
   <si>
-    <t>ReferralRequest.context.Encounter</t>
-  </si>
-  <si>
-    <t>ReferralRequest.context.EpisodeOfCare</t>
-  </si>
-  <si>
     <t>ReferralRequest.occurrence[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">ReferralRequest.occurrence[x].occurrenceDateTime </t>
-  </si>
-  <si>
-    <t>ReferralRequest.occurrence[x].occurrencePeriod</t>
-  </si>
-  <si>
     <t>ReferralRequest.authoredOn</t>
   </si>
   <si>
     <t>ReferralRequest.requester</t>
   </si>
   <si>
-    <t>ReferralRequest.requester.agent</t>
-  </si>
-  <si>
-    <t>ReferralRequest.requester.onBehalfOf</t>
-  </si>
-  <si>
     <t>ReferralRequest.specialty</t>
   </si>
   <si>
-    <t>ReferralRequest.specialty.coding</t>
-  </si>
-  <si>
-    <t>ReferralRequest.specialty.text</t>
-  </si>
-  <si>
     <t>ReferralRequest.recipient</t>
   </si>
   <si>
-    <t>ReferralRequest.recipient.Practitioner</t>
-  </si>
-  <si>
-    <t>ReferralRequest.recipient.Organization</t>
-  </si>
-  <si>
-    <t>ReferralRequest.recipient.HealthcareService</t>
-  </si>
-  <si>
     <t>ReferralRequest.reasonCode</t>
   </si>
   <si>
-    <t>ReferralRequest.reasonCode.coding</t>
-  </si>
-  <si>
-    <t>ReferralRequest.reasonCode.text</t>
-  </si>
-  <si>
     <t>ReferralRequest.reasonReference</t>
   </si>
   <si>
-    <t>ReferralRequest.reasonReference.Condition</t>
-  </si>
-  <si>
-    <t>ReferralRequest.reasonReference.Observation</t>
-  </si>
-  <si>
     <t>ReferralRequest.description</t>
   </si>
   <si>
@@ -245,82 +161,499 @@
     <t>ReferralRequest.relevantHistory</t>
   </si>
   <si>
+    <t>RF1.1</t>
+  </si>
+  <si>
+    <t>RF1.10</t>
+  </si>
+  <si>
+    <t>RF1.2</t>
+  </si>
+  <si>
+    <t>RF1.3</t>
+  </si>
+  <si>
+    <t>Practitioner: PRD.2/PRD.7 where PRD.3 = RT; Organization: PRD.10 where PRD.3 = RT</t>
+  </si>
+  <si>
+    <t>RF1.6  || RF1.11</t>
+  </si>
+  <si>
+    <t>RF1.Originating Referral Identifier|| RF1.External Referral Identifier</t>
+  </si>
+  <si>
+    <t>RF1.Referral Status</t>
+  </si>
+  <si>
+    <t>RF1.Referral Reason</t>
+  </si>
+  <si>
+    <t>RF1.Referral Priority</t>
+  </si>
+  <si>
+    <t>RF1.Referral Type</t>
+  </si>
+  <si>
+    <t>PR1.3 || OBR.4</t>
+  </si>
+  <si>
+    <t>PR1.ProcedureCode || OBR.UniversalServiceIdentifier</t>
+  </si>
+  <si>
+    <t>PR1.3.1 || OBR.4.1</t>
+  </si>
+  <si>
+    <t>PR1.3.2 || OBR.4.2</t>
+  </si>
+  <si>
+    <t>PR1.ProcedureCode.Identifier || OBR.UniversalServiceIdentifier.Identifier</t>
+  </si>
+  <si>
+    <t>PR1.ProcedureCode.Text ||OBR.UniversalServiceIdentifier.texts</t>
+  </si>
+  <si>
+    <t>RF1.Effective Date</t>
+  </si>
+  <si>
+    <t>RF1.7</t>
+  </si>
+  <si>
+    <t>OBR.7 || OBR.8</t>
+  </si>
+  <si>
+    <t>OBR.ObservationDateTime || OBR.ObservationEndDateTime</t>
+  </si>
+  <si>
+    <t>PV1.VisitNumber.IdentifierTypeCode</t>
+  </si>
+  <si>
+    <t>PV1.19 (PV1.19.5)</t>
+  </si>
+  <si>
+    <t>PID.PatientIdentifierList.ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               ReferralRequest.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               ReferralRequest.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ReferralRequest.definition.reference </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ReferralRequest.definition.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ReferralRequest.definition.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ReferralRequest.definition.identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ReferralRequest.definition.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ReferralRequest.definition.identifier.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ReferralRequest.definition.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ReferralRequest.definition.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     ReferralRequest.definition.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     ReferralRequest.definition.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ReferralRequest.definition.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ReferralRequest.basedOn.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ReferralRequest.basedOn.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ReferralRequest.basedOn.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ReferralRequest.basedOn.identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ReferralRequest.basedOn.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ReferralRequest.basedOn.identifier.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ReferralRequest.basedOn.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ReferralRequest.basedOn.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  ReferralRequest.basedOn.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  ReferralRequest.basedOn.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ReferralRequest.basedOn.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ReferralRequest.replaces.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ReferralRequest.replaces.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ReferralRequest.replaces.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReferralRequest.replaces.identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReferralRequest.replaces.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReferralRequest.replaces.identifier.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReferralRequest.replaces.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReferralRequest.replaces.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ReferralRequest.replaces.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ReferralRequest.replaces.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReferralRequest.replaces.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ReferralRequest.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ReferralRequest.type.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ReferralRequest.priority.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ReferralRequest.priority.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ReferralRequest.serviceRequested.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ReferralRequest.serviceRequested.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ReferralRequest.subject.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ReferralRequest.subject.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ReferralRequest.subject.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.subject.identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.subject.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.subject.identifier.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.subject.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.subject.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  ReferralRequest.subject.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  ReferralRequest.subject.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.subject.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ReferralRequest.context.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ReferralRequest.context.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ReferralRequest.context.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ReferralRequest.context.identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ReferralRequest.context.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ReferralRequest.context.identifier.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ReferralRequest.context.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ReferralRequest.context.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 ReferralRequest.context.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 ReferralRequest.context.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ReferralRequest.context.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ReferralRequest.occurrence[x].occurrenceDateTime </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ReferralRequest.occurrence[x].occurrencePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ReferralRequest.occurrence[x].occurrencePeriod.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ReferralRequest.occurrence[x].occurrencePeriod.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ReferralRequest.requester.agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ReferralRequest.requester.onBehalfOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ReferralRequest.requester.agent.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ReferralRequest.requester.agent.identifier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ReferralRequest.requester.agent.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ReferralRequest.requester.agent.identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ReferralRequest.requester.agent.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ReferralRequest.requester.agent.identifier.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ReferralRequest.requester.agent.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ReferralRequest.requester.agent.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ReferralRequest.requester.agent.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            ReferralRequest.requester.agent.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           ReferralRequest.requester.agent.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ReferralRequest.requester.onBehalfOf.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ReferralRequest.requester.onBehalfOf.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ReferralRequest.requester.onBehalfOf.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ReferralRequest.requester.onBehalfOf.identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ReferralRequest.requester.onBehalfOf.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ReferralRequest.requester.onBehalfOf.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ReferralRequest.requester.onBehalfOf.identifier.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ReferralRequest.requester.onBehalfOf.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ReferralRequest.requester.onBehalfOf.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        ReferralRequest.requester.onBehalfOf.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        ReferralRequest.requester.onBehalfOf.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ReferralRequest.specialty.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ReferralRequest.specialty.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ReferralRequest.recipient.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ReferralRequest.recipient.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ReferralRequest.recipient.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.recipient.identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.recipient.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.recipient.identifier.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.recipient.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.recipient.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   ReferralRequest.recipient.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  ReferralRequest.recipient.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.recipient.identifier.assinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ReferralRequest.reasonCode.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ReferralRequest.reasonCode.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ReferralRequest.reasonReference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ReferralRequest.reasonReference. Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ReferralRequest.reasonReference.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ReferralRequest.supportingInfo.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ReferralRequest.supportingInfo.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ReferralRequest.supportingInfo.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ReferralRequest.relevantHistory.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ReferralRequest.relevantHistory.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ReferralRequest.relevantHistory.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReferralRequest.relevantHistory.identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReferralRequest.relevantHistory.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReferralRequest.relevantHistory.identifier.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReferralRequest.relevantHistory.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReferralRequest.relevantHistory.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     ReferralRequest.relevantHistory.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     ReferralRequest.relevantHistory.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ReferralRequest.relevantHistory.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.supportingInfo.identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.supportingInfo.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.supportingInfo.identifier.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.supportingInfo.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.supportingInfo.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   ReferralRequest.supportingInfo.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   ReferralRequest.supportingInfo.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.supportingInfo.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.reasonReference. Identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.reasonReference. Identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.reasonReference. Identifier.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.reasonReference. Identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.reasonReference. Identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ReferralRequest.reasonReference. Identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ReferralRequest.reasonReference. Identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ReferralRequest.reasonReference. Identifier.assigner</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>RF1.1</t>
-  </si>
-  <si>
-    <t>RF1.10</t>
-  </si>
-  <si>
-    <t>RF1.2</t>
-  </si>
-  <si>
-    <t>PID.3</t>
-  </si>
-  <si>
-    <t>RF1.3</t>
-  </si>
-  <si>
-    <t>Practitioner: PRD.2/PRD.7 where PRD.3 = RT; Organization: PRD.10 where PRD.3 = RT</t>
-  </si>
-  <si>
-    <t>RF1.6  || RF1.11</t>
-  </si>
-  <si>
-    <t>RF1.Originating Referral Identifier|| RF1.External Referral Identifier</t>
-  </si>
-  <si>
-    <t>RF1.Referral Status</t>
-  </si>
-  <si>
-    <t>RF1.Referral Reason</t>
-  </si>
-  <si>
-    <t>RF1.Referral Priority</t>
-  </si>
-  <si>
-    <t>RF1.Referral Type</t>
-  </si>
-  <si>
-    <t>PR1.3 || OBR.4</t>
-  </si>
-  <si>
-    <t>PR1.ProcedureCode || OBR.UniversalServiceIdentifier</t>
-  </si>
-  <si>
-    <t>PR1.3.1 || OBR.4.1</t>
-  </si>
-  <si>
-    <t>PR1.3.2 || OBR.4.2</t>
-  </si>
-  <si>
-    <t>PR1.ProcedureCode.Identifier || OBR.UniversalServiceIdentifier.Identifier</t>
-  </si>
-  <si>
-    <t>PR1.ProcedureCode.Text ||OBR.UniversalServiceIdentifier.texts</t>
-  </si>
-  <si>
-    <t>RF1.Effective Date</t>
-  </si>
-  <si>
-    <t>RF1.7</t>
-  </si>
-  <si>
-    <t>OBR.7 || OBR.8</t>
-  </si>
-  <si>
-    <t>OBR.ObservationDateTime || OBR.ObservationEndDateTime</t>
-  </si>
-  <si>
-    <t>PV1.VisitNumber.IdentifierTypeCode</t>
-  </si>
-  <si>
-    <t>PV1.19 (PV1.19.5)</t>
-  </si>
-  <si>
-    <t>PID.PatientIdentifierList.ID</t>
+    <t>PID.3.1</t>
   </si>
 </sst>
 </file>
@@ -478,19 +811,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,7 +835,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,15 +1115,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.1796875" customWidth="1"/>
+    <col min="1" max="1" width="64.54296875" customWidth="1"/>
     <col min="2" max="2" width="27.54296875" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="57.453125" bestFit="1" customWidth="1"/>
@@ -798,15 +1131,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -829,14 +1162,14 @@
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>73</v>
+      <c r="B3" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -844,8 +1177,8 @@
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>73</v>
+      <c r="B4" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -855,8 +1188,8 @@
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>73</v>
+      <c r="B5" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="4"/>
@@ -866,8 +1199,8 @@
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>73</v>
+      <c r="B6" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -877,8 +1210,8 @@
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>73</v>
+      <c r="B7" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -888,8 +1221,8 @@
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>73</v>
+      <c r="B8" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -897,21 +1230,21 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>73</v>
+      <c r="A10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -919,32 +1252,32 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>73</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>73</v>
+      <c r="A12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>73</v>
+      <c r="A13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -952,10 +1285,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -963,21 +1296,21 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>73</v>
+      <c r="A16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -985,21 +1318,21 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>73</v>
+      <c r="A18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1007,10 +1340,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1018,10 +1351,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1029,10 +1362,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1040,10 +1373,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>73</v>
+        <v>81</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1051,303 +1384,263 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="8" t="s">
         <v>73</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>73</v>
+      <c r="A24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="A25" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="B25" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>73</v>
+      <c r="A26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="11"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="A27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>73</v>
+        <v>86</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="11"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>73</v>
+        <v>87</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="11"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="A30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>73</v>
+        <v>89</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="11"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>73</v>
+        <v>90</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="11"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="A33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>90</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>73</v>
+        <v>93</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="11"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>73</v>
+        <v>94</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="11"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="A39" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="B39" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>73</v>
+        <v>97</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="11"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>73</v>
+        <v>98</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="11"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>95</v>
-      </c>
+      <c r="A42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>73</v>
+        <v>100</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="11"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>73</v>
+        <v>101</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>73</v>
+      <c r="A46" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1355,47 +1648,43 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>73</v>
+        <v>95</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>73</v>
+      <c r="A48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="A49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>73</v>
+        <v>19</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1403,36 +1692,32 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>73</v>
+        <v>20</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" ht="35.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>79</v>
-      </c>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1440,172 +1725,1441 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>73</v>
+        <v>23</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="A55" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="A57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>73</v>
+        <v>104</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>73</v>
+      <c r="A59" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="D59" s="9"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="A60" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>73</v>
+        <v>106</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="D61" s="9"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>73</v>
+      <c r="A62" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="D62" s="9"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="A64" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="A66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="9"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>73</v>
+      <c r="A68" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="9"/>
       <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C124" s="13"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" ht="35.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B176" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B178" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
